--- a/data/trans_orig/P16A14_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A32D0E7-4CD1-4C04-AD35-616C187383E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD6CC48D-69FE-4F6C-9967-235A86364854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73451797-EB9D-457C-9FC2-FB8BDDAA48C2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E0CCD0A-8FD6-4260-BECE-F8844940E83F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="235">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -242,7 +242,7 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -254,463 +254,475 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>0,19%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>98,52%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -1143,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8F3270-B68C-401F-9EDD-961AB3727247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D437C6-AC13-4BCE-B9C4-95AA2DF265DF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2362,7 +2374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3B932E-0E49-45D4-A90C-3068B96D0B96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC751DF6-57BD-4342-94FA-32A303AC04A1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2519,10 +2531,10 @@
         <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2549,13 @@
         <v>450451</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H5" s="7">
         <v>419</v>
@@ -2552,10 +2564,10 @@
         <v>427630</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2567,13 +2579,13 @@
         <v>878081</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2653,13 @@
         <v>7712</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2656,13 +2668,13 @@
         <v>8594</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2671,13 +2683,13 @@
         <v>16307</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2704,13 @@
         <v>678526</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>562</v>
@@ -2707,13 +2719,13 @@
         <v>600620</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M8" s="7">
         <v>1222</v>
@@ -2722,13 +2734,13 @@
         <v>1279144</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2808,13 @@
         <v>9735</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2811,13 +2823,13 @@
         <v>16596</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -2826,13 +2838,13 @@
         <v>26330</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2859,13 @@
         <v>670319</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>647</v>
@@ -2862,13 +2874,13 @@
         <v>689339</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
@@ -2972,7 +2984,7 @@
         <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2981,13 +2993,13 @@
         <v>17874</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3014,13 @@
         <v>607966</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>527</v>
@@ -3017,13 +3029,13 @@
         <v>602849</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>1071</v>
@@ -3032,13 +3044,13 @@
         <v>1210815</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3118,13 @@
         <v>6243</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3121,13 +3133,13 @@
         <v>16595</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3136,13 +3148,13 @@
         <v>22838</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3169,13 @@
         <v>422101</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -3172,13 +3184,13 @@
         <v>428183</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -3187,13 +3199,13 @@
         <v>850283</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3273,13 @@
         <v>5389</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -3276,13 +3288,13 @@
         <v>28195</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -3291,10 +3303,10 @@
         <v>33584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>156</v>
@@ -3315,10 +3327,10 @@
         <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>661</v>
@@ -3342,13 +3354,13 @@
         <v>1257591</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3428,13 @@
         <v>38384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -3431,13 +3443,13 @@
         <v>82913</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -3446,13 +3458,13 @@
         <v>121296</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3479,13 @@
         <v>3378531</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>3203</v>
@@ -3581,7 +3593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640EF57-1EB4-4200-96DD-EDE1CC7EDDA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7A526B-D27A-49EE-BBCB-D5E2C0370E76}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3789,7 +3801,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4051,7 +4063,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4081,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4084,7 +4096,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4099,7 +4111,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4176,37 +4188,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4236,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4239,7 +4251,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4254,7 +4266,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4331,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4346,22 +4358,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,7 +4391,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4800,7 +4812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4CA1A6-D182-44F1-AD16-0A08B2C37AE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C76EB-A0F5-492A-B6C2-B96C917B59A3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4930,7 +4942,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4960,7 +4972,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,7 +4990,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4993,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -5008,7 +5020,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -5100,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5115,7 +5127,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,7 +5160,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -5163,7 +5175,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -5240,7 +5252,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5255,7 +5267,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5270,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,7 +5300,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -5303,7 +5315,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -5318,7 +5330,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -5425,7 +5437,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5550,7 +5562,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5565,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5580,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5628,7 +5640,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5705,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5720,7 +5732,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5753,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5768,7 +5780,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5783,7 +5795,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5875,7 +5887,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5923,7 +5935,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD6CC48D-69FE-4F6C-9967-235A86364854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C00FF39-A360-42F1-8543-1BA230B2A925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E0CCD0A-8FD6-4260-BECE-F8844940E83F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E448617-0538-4FC9-8C2F-8940456BAFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="233">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -242,460 +242,454 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,74%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>2,38%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
     <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -1155,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D437C6-AC13-4BCE-B9C4-95AA2DF265DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59401B6-BD6C-406F-AAD6-14E9CF9FFEF8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2374,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC751DF6-57BD-4342-94FA-32A303AC04A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62264CD4-3C94-49E0-9913-F8652D3FF716}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2531,10 +2525,10 @@
         <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2543,13 @@
         <v>450451</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7">
         <v>419</v>
@@ -2564,10 +2558,10 @@
         <v>427630</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2579,13 +2573,13 @@
         <v>878081</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2647,13 @@
         <v>7712</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2668,13 +2662,13 @@
         <v>8594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2683,10 +2677,10 @@
         <v>16307</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>87</v>
@@ -2725,7 +2719,7 @@
         <v>92</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
         <v>1222</v>
@@ -2734,13 +2728,13 @@
         <v>1279144</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2802,13 @@
         <v>9735</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2823,13 +2817,13 @@
         <v>16596</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -2838,13 +2832,13 @@
         <v>26330</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2853,13 @@
         <v>670319</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H11" s="7">
         <v>647</v>
@@ -2874,13 +2868,13 @@
         <v>689339</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
@@ -2889,13 +2883,13 @@
         <v>1359659</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2957,13 @@
         <v>6651</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2978,13 +2972,13 @@
         <v>11223</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2993,13 +2987,13 @@
         <v>17874</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3008,13 @@
         <v>607966</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>527</v>
@@ -3029,10 +3023,10 @@
         <v>602849</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>127</v>
@@ -3133,13 +3127,13 @@
         <v>16595</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3148,13 +3142,13 @@
         <v>22838</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3163,13 @@
         <v>422101</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -3184,13 +3178,13 @@
         <v>428183</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -3199,13 +3193,13 @@
         <v>850283</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3267,13 @@
         <v>5389</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -3288,13 +3282,13 @@
         <v>28195</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -3303,13 +3297,13 @@
         <v>33584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3318,13 @@
         <v>549169</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>661</v>
@@ -3339,13 +3333,13 @@
         <v>708422</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>1158</v>
@@ -3354,13 +3348,13 @@
         <v>1257591</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3422,13 @@
         <v>38384</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -3443,13 +3437,13 @@
         <v>82913</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -3458,13 +3452,13 @@
         <v>121296</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,7 +3476,7 @@
         <v>88</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>130</v>
@@ -3494,28 +3488,28 @@
         <v>3457043</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>6372</v>
       </c>
       <c r="N23" s="7">
-        <v>6835574</v>
+        <v>6835575</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,7 +3551,7 @@
         <v>6482</v>
       </c>
       <c r="N24" s="7">
-        <v>6956870</v>
+        <v>6956871</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3593,7 +3587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7A526B-D27A-49EE-BBCB-D5E2C0370E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8DA950-E08A-4A59-A2A1-24BB4FABFA4B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3610,7 +3604,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3723,7 +3717,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3738,7 +3732,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3753,7 +3747,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3786,7 +3780,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3801,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3878,7 +3872,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3908,7 +3902,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,7 +3920,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3956,7 +3950,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4033,7 +4027,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4063,7 +4057,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,7 +4075,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4096,7 +4090,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4111,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4188,7 +4182,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4203,7 +4197,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4218,7 +4212,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4224,13 @@
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>312667</v>
+        <v>312668</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4251,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4266,7 +4260,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4281,7 +4275,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>312667</v>
+        <v>312668</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4343,7 +4337,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4358,7 +4352,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4373,7 +4367,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4406,7 +4400,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4421,7 +4415,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4498,7 +4492,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4513,7 +4507,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4528,7 +4522,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,7 +4540,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -4561,7 +4555,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4576,7 +4570,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4653,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4668,7 +4662,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4683,7 +4677,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,7 +4695,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -4716,7 +4710,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -4731,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4812,7 +4806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851C76EB-A0F5-492A-B6C2-B96C917B59A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3341EC-32F6-4697-9886-F04F4B78A482}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4829,7 +4823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4942,7 +4936,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4957,7 +4951,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4972,7 +4966,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +4999,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -5020,7 +5014,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -5112,7 +5106,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5127,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,7 +5154,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -5175,7 +5169,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -5252,7 +5246,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5267,7 +5261,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5282,7 +5276,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,7 +5294,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -5315,7 +5309,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -5330,7 +5324,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -5437,7 +5431,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,7 +5479,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5562,7 +5556,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5577,7 +5571,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5592,7 +5586,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,7 +5604,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5625,7 +5619,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5640,7 +5634,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5717,7 +5711,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5732,7 +5726,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5765,7 +5759,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5780,7 +5774,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5795,7 +5789,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5887,7 +5881,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5935,7 +5929,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C00FF39-A360-42F1-8543-1BA230B2A925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{975A2C38-959D-4196-921E-A4C467E95EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E448617-0538-4FC9-8C2F-8940456BAFBB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC464F80-EE06-43D0-BE04-B7A7F7108EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="231">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -242,319 +242,337 @@
     <t>0,18%</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>97,9%</t>
   </si>
   <si>
     <t>98,56%</t>
@@ -617,18 +635,12 @@
     <t>99,63%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
     <t>2,18%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
     <t>97,82%</t>
   </si>
   <si>
@@ -677,21 +689,9 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>98,52%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
     <t>0,57%</t>
   </si>
   <si>
@@ -710,13 +710,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
     <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -1149,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59401B6-BD6C-406F-AAD6-14E9CF9FFEF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F799C7-76A7-4405-B0AC-ECFB8CAF3FCB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2368,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62264CD4-3C94-49E0-9913-F8652D3FF716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96777D52-1F29-4AE2-9EFC-9BC8170AB94D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2665,10 +2659,10 @@
         <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2677,13 +2671,13 @@
         <v>16307</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2692,13 @@
         <v>678526</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>562</v>
@@ -2713,13 +2707,13 @@
         <v>600620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="M8" s="7">
         <v>1222</v>
@@ -2728,13 +2722,13 @@
         <v>1279144</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2796,13 @@
         <v>9735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2817,13 +2811,13 @@
         <v>16596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -2832,13 +2826,13 @@
         <v>26330</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2847,13 @@
         <v>670319</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>647</v>
@@ -2868,13 +2862,13 @@
         <v>689339</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
@@ -2883,13 +2877,13 @@
         <v>1359659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2951,13 @@
         <v>6651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2972,13 +2966,13 @@
         <v>11223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2987,13 +2981,13 @@
         <v>17874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3002,13 @@
         <v>607966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>527</v>
@@ -3023,13 +3017,13 @@
         <v>602849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>1071</v>
@@ -3038,13 +3032,13 @@
         <v>1210815</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3106,13 @@
         <v>6243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3127,13 +3121,13 @@
         <v>16595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3142,13 +3136,13 @@
         <v>22838</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3157,13 @@
         <v>422101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -3178,13 +3172,13 @@
         <v>428183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -3193,13 +3187,13 @@
         <v>850283</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3261,13 @@
         <v>5389</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -3282,13 +3276,13 @@
         <v>28195</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -3297,13 +3291,13 @@
         <v>33584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3312,13 @@
         <v>549169</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>661</v>
@@ -3333,13 +3327,13 @@
         <v>708422</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>1158</v>
@@ -3351,10 +3345,10 @@
         <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,10 +3419,10 @@
         <v>81</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -3437,13 +3431,13 @@
         <v>82913</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -3452,13 +3446,13 @@
         <v>121296</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3467,13 @@
         <v>3378531</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7">
         <v>3203</v>
@@ -3488,28 +3482,28 @@
         <v>3457043</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>6372</v>
       </c>
       <c r="N23" s="7">
-        <v>6835575</v>
+        <v>6835574</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3545,7 @@
         <v>6482</v>
       </c>
       <c r="N24" s="7">
-        <v>6956871</v>
+        <v>6956870</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3587,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8DA950-E08A-4A59-A2A1-24BB4FABFA4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3AEE63-262C-4BEB-A890-EE0AD6A58A25}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3604,7 +3598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3717,7 +3711,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3732,7 +3726,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3747,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,7 +3759,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3780,7 +3774,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3795,7 +3789,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3872,7 +3866,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3902,7 +3896,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,7 +3914,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3950,7 +3944,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4027,7 +4021,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4057,7 +4051,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,7 +4069,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4105,7 +4099,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4182,7 +4176,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4197,7 +4191,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4212,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4218,13 @@
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>312668</v>
+        <v>312667</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4245,7 +4239,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4260,7 +4254,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4275,7 +4269,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>312668</v>
+        <v>312667</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4337,7 +4331,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4352,7 +4346,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4367,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,7 +4379,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4400,7 +4394,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4415,7 +4409,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4492,7 +4486,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4507,7 +4501,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4522,7 +4516,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4534,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -4555,7 +4549,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4570,7 +4564,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4647,7 +4641,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4662,7 +4656,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4677,7 +4671,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,7 +4689,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -4710,7 +4704,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
@@ -4725,7 +4719,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4806,7 +4800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3341EC-32F6-4697-9886-F04F4B78A482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4E1A3-C3C9-401F-B370-A15420D64243}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4823,7 +4817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4936,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4951,7 +4945,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4966,7 +4960,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,7 +4978,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4999,7 +4993,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -5014,7 +5008,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -5106,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5121,7 +5115,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5148,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -5169,7 +5163,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -5276,7 +5270,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,7 +5318,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -5556,7 +5550,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5571,22 +5565,22 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,7 +5598,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5619,7 +5613,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5634,7 +5628,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5711,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5726,7 +5720,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5759,7 +5753,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5774,7 +5768,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5881,7 +5875,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5929,7 +5923,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{975A2C38-959D-4196-921E-A4C467E95EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39AC2A01-A4A4-4A62-9A04-7E332CCB0E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC464F80-EE06-43D0-BE04-B7A7F7108EBA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{67137F01-0BE4-406E-81FF-94B438539BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="270">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -128,7 +128,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -149,7 +149,7 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -170,7 +170,7 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -191,25 +191,46 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -494,238 +515,334 @@
     <t>98,32%</t>
   </si>
   <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -1143,8 +1260,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F799C7-76A7-4405-B0AC-ECFB8CAF3FCB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AF8906-9F0C-4420-A70C-21709198C513}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2087,10 +2204,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
-        <v>83407</v>
+        <v>61094</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2102,10 +2219,10 @@
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>55860</v>
+        <v>33561</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
@@ -2117,10 +2234,10 @@
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N20" s="7">
-        <v>139267</v>
+        <v>94655</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2138,10 +2255,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D21" s="7">
-        <v>83407</v>
+        <v>61094</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2153,10 +2270,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I21" s="7">
-        <v>55860</v>
+        <v>33561</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2168,10 +2285,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N21" s="7">
-        <v>139267</v>
+        <v>94655</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2185,7 +2302,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2203,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2218,7 +2335,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2233,7 +2350,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,46 +2359,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1878</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>1947662</v>
+        <v>22313</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>1364</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7">
-        <v>1399722</v>
+        <v>22299</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3242</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>3347384</v>
+        <v>44612</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -2293,63 +2410,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22313</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>19</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22299</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>44612</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1878</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1947662</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>1364</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>1399722</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>3242</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>3347384</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1878</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1947662</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1364</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1399722</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3242</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3347384</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2362,8 +2635,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96777D52-1F29-4AE2-9EFC-9BC8170AB94D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896A70D1-ED66-41D2-BB9D-1A7F83D49165}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2379,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2486,13 +2759,13 @@
         <v>2654</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2501,13 +2774,13 @@
         <v>1709</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2516,13 +2789,13 @@
         <v>4364</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2810,13 @@
         <v>450451</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>419</v>
@@ -2552,10 +2825,10 @@
         <v>427630</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2567,13 +2840,13 @@
         <v>878081</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2914,13 @@
         <v>7712</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -2656,13 +2929,13 @@
         <v>8594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2671,13 +2944,13 @@
         <v>16307</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2965,13 @@
         <v>678526</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>562</v>
@@ -2707,13 +2980,13 @@
         <v>600620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>1222</v>
@@ -2722,13 +2995,13 @@
         <v>1279144</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +3069,13 @@
         <v>9735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -2811,13 +3084,13 @@
         <v>16596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -2826,13 +3099,13 @@
         <v>26330</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +3120,13 @@
         <v>670319</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
         <v>647</v>
@@ -2862,13 +3135,13 @@
         <v>689339</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
@@ -2877,13 +3150,13 @@
         <v>1359659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +3224,13 @@
         <v>6651</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2966,13 +3239,13 @@
         <v>11223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2981,13 +3254,13 @@
         <v>17874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3275,13 @@
         <v>607966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>527</v>
@@ -3017,13 +3290,13 @@
         <v>602849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>1071</v>
@@ -3032,13 +3305,13 @@
         <v>1210815</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3379,13 @@
         <v>6243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3121,13 +3394,13 @@
         <v>16595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3136,13 +3409,13 @@
         <v>22838</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3430,13 @@
         <v>422101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -3172,13 +3445,13 @@
         <v>428183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>773</v>
@@ -3187,13 +3460,13 @@
         <v>850283</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,49 +3528,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>5389</v>
+        <v>994</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>28195</v>
+        <v>14029</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M19" s="7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N19" s="7">
-        <v>33584</v>
+        <v>15023</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,49 +3579,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>497</v>
+        <v>279</v>
       </c>
       <c r="D20" s="7">
-        <v>549169</v>
+        <v>304528</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>661</v>
+        <v>328</v>
       </c>
       <c r="I20" s="7">
-        <v>708422</v>
+        <v>338035</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
-        <v>1158</v>
+        <v>607</v>
       </c>
       <c r="N20" s="7">
-        <v>1257591</v>
+        <v>642563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,10 +3630,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>501</v>
+        <v>280</v>
       </c>
       <c r="D21" s="7">
-        <v>554558</v>
+        <v>305522</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3372,10 +3645,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>688</v>
+        <v>342</v>
       </c>
       <c r="I21" s="7">
-        <v>736617</v>
+        <v>352064</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3387,10 +3660,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1189</v>
+        <v>622</v>
       </c>
       <c r="N21" s="7">
-        <v>1291175</v>
+        <v>657586</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3404,55 +3677,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>38384</v>
+        <v>4395</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H22" s="7">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>82913</v>
+        <v>14166</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>121296</v>
+        <v>18561</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,49 +3734,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3169</v>
+        <v>218</v>
       </c>
       <c r="D23" s="7">
-        <v>3378531</v>
+        <v>244641</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H23" s="7">
-        <v>3203</v>
+        <v>333</v>
       </c>
       <c r="I23" s="7">
-        <v>3457043</v>
+        <v>370387</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
-        <v>6372</v>
+        <v>551</v>
       </c>
       <c r="N23" s="7">
-        <v>6835574</v>
+        <v>615028</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,63 +3785,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>346</v>
+      </c>
+      <c r="I24" s="7">
+        <v>384553</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>567</v>
+      </c>
+      <c r="N24" s="7">
+        <v>633589</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7">
+        <v>38384</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="7">
+        <v>78</v>
+      </c>
+      <c r="I25" s="7">
+        <v>82913</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" s="7">
+        <v>110</v>
+      </c>
+      <c r="N25" s="7">
+        <v>121296</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3169</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3378531</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3203</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3457043</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6372</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6835575</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3201</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3416915</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>3281</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3539956</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>6482</v>
       </c>
-      <c r="N24" s="7">
-        <v>6956870</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="N27" s="7">
+        <v>6956871</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3581,8 +4010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3AEE63-262C-4BEB-A890-EE0AD6A58A25}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DCEE82-49AF-47DE-B67B-46883AA75387}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3598,7 +4027,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3711,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3726,7 +4155,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3741,7 +4170,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,7 +4188,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3774,7 +4203,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3789,7 +4218,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3866,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3896,7 +4325,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,7 +4343,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3944,7 +4373,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4021,7 +4450,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4036,7 +4465,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4051,7 +4480,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4498,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4084,7 +4513,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4099,7 +4528,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4176,7 +4605,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4191,7 +4620,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4206,7 +4635,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4653,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4239,7 +4668,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4254,7 +4683,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4331,7 +4760,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4346,7 +4775,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4361,7 +4790,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,7 +4808,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4394,7 +4823,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4409,7 +4838,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4486,7 +4915,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4501,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4516,7 +4945,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,46 +4954,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>76755</v>
+        <v>53730</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I20" s="7">
-        <v>50589</v>
+        <v>31344</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>127344</v>
+        <v>85073</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4576,10 +5005,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7">
-        <v>76755</v>
+        <v>53730</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4591,10 +5020,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I21" s="7">
-        <v>50589</v>
+        <v>31344</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4606,10 +5035,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N21" s="7">
-        <v>127344</v>
+        <v>85073</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4623,7 +5052,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4641,7 +5070,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4656,7 +5085,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4671,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,46 +5109,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1610</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>1704362</v>
+        <v>23025</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>1227</v>
+        <v>15</v>
       </c>
       <c r="I23" s="7">
-        <v>1245925</v>
+        <v>19246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>2837</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>2950287</v>
+        <v>42271</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4731,63 +5160,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>27</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23025</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19246</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>42271</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1610</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1704362</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>1227</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>1245925</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>2837</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>2950287</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1610</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1704362</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1227</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1245925</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2837</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2950287</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4800,8 +5385,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4E1A3-C3C9-401F-B370-A15420D64243}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E67311F-B0D6-4C43-8CCD-CAFEF85348C5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4817,7 +5402,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4930,7 +5515,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4945,7 +5530,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4960,7 +5545,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +5557,13 @@
         <v>131</v>
       </c>
       <c r="D5" s="7">
-        <v>288936</v>
+        <v>300074</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4987,13 +5572,13 @@
         <v>129</v>
       </c>
       <c r="I5" s="7">
-        <v>224456</v>
+        <v>195744</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -5002,13 +5587,13 @@
         <v>260</v>
       </c>
       <c r="N5" s="7">
-        <v>513392</v>
+        <v>495818</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -5023,7 +5608,7 @@
         <v>131</v>
       </c>
       <c r="D6" s="7">
-        <v>288936</v>
+        <v>300074</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -5038,7 +5623,7 @@
         <v>129</v>
       </c>
       <c r="I6" s="7">
-        <v>224456</v>
+        <v>195744</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5053,7 +5638,7 @@
         <v>260</v>
       </c>
       <c r="N6" s="7">
-        <v>513392</v>
+        <v>495818</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5100,7 +5685,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5115,7 +5700,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,7 +5712,7 @@
         <v>206</v>
       </c>
       <c r="D8" s="7">
-        <v>289370</v>
+        <v>279893</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -5142,13 +5727,13 @@
         <v>260</v>
       </c>
       <c r="I8" s="7">
-        <v>267832</v>
+        <v>239512</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -5157,13 +5742,13 @@
         <v>466</v>
       </c>
       <c r="N8" s="7">
-        <v>557201</v>
+        <v>519405</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -5178,7 +5763,7 @@
         <v>206</v>
       </c>
       <c r="D9" s="7">
-        <v>289370</v>
+        <v>279893</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5193,7 +5778,7 @@
         <v>260</v>
       </c>
       <c r="I9" s="7">
-        <v>267832</v>
+        <v>239512</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5208,7 +5793,7 @@
         <v>466</v>
       </c>
       <c r="N9" s="7">
-        <v>557201</v>
+        <v>519405</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5240,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5255,7 +5840,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5270,7 +5855,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5867,13 @@
         <v>337</v>
       </c>
       <c r="D11" s="7">
-        <v>342655</v>
+        <v>326029</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -5297,13 +5882,13 @@
         <v>413</v>
       </c>
       <c r="I11" s="7">
-        <v>293303</v>
+        <v>269599</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -5312,13 +5897,13 @@
         <v>750</v>
       </c>
       <c r="N11" s="7">
-        <v>635958</v>
+        <v>595628</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -5333,7 +5918,7 @@
         <v>337</v>
       </c>
       <c r="D12" s="7">
-        <v>342655</v>
+        <v>326029</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -5348,7 +5933,7 @@
         <v>413</v>
       </c>
       <c r="I12" s="7">
-        <v>293303</v>
+        <v>269599</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5363,7 +5948,7 @@
         <v>750</v>
       </c>
       <c r="N12" s="7">
-        <v>635958</v>
+        <v>595628</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5425,7 +6010,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +6022,7 @@
         <v>331</v>
       </c>
       <c r="D14" s="7">
-        <v>384346</v>
+        <v>560562</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -5452,7 +6037,7 @@
         <v>438</v>
       </c>
       <c r="I14" s="7">
-        <v>294468</v>
+        <v>292698</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -5467,13 +6052,13 @@
         <v>769</v>
       </c>
       <c r="N14" s="7">
-        <v>678814</v>
+        <v>853259</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5488,7 +6073,7 @@
         <v>331</v>
       </c>
       <c r="D15" s="7">
-        <v>384346</v>
+        <v>560562</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -5503,7 +6088,7 @@
         <v>438</v>
       </c>
       <c r="I15" s="7">
-        <v>294468</v>
+        <v>292698</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5518,7 +6103,7 @@
         <v>769</v>
       </c>
       <c r="N15" s="7">
-        <v>678814</v>
+        <v>853259</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5550,7 +6135,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5565,7 +6150,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5580,7 +6165,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +6177,13 @@
         <v>197</v>
       </c>
       <c r="D17" s="7">
-        <v>179308</v>
+        <v>163831</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5607,13 +6192,13 @@
         <v>250</v>
       </c>
       <c r="I17" s="7">
-        <v>147541</v>
+        <v>135048</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5622,13 +6207,13 @@
         <v>447</v>
       </c>
       <c r="N17" s="7">
-        <v>326849</v>
+        <v>298879</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5643,7 +6228,7 @@
         <v>197</v>
       </c>
       <c r="D18" s="7">
-        <v>179308</v>
+        <v>163831</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5658,7 +6243,7 @@
         <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>147541</v>
+        <v>135048</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5673,7 +6258,7 @@
         <v>447</v>
       </c>
       <c r="N18" s="7">
-        <v>326849</v>
+        <v>298879</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5705,7 +6290,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5720,7 +6305,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5735,7 +6320,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,46 +6329,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="D20" s="7">
-        <v>133858</v>
+        <v>85295</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="I20" s="7">
-        <v>115310</v>
+        <v>67907</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="N20" s="7">
-        <v>249168</v>
+        <v>153202</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -5795,10 +6380,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="D21" s="7">
-        <v>133858</v>
+        <v>85295</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5810,10 +6395,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="I21" s="7">
-        <v>115310</v>
+        <v>67907</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5825,10 +6410,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>390</v>
+        <v>267</v>
       </c>
       <c r="N21" s="7">
-        <v>249168</v>
+        <v>153202</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5842,7 +6427,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5860,7 +6445,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5875,7 +6460,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5890,7 +6475,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,46 +6484,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1388</v>
+        <v>56</v>
       </c>
       <c r="D23" s="7">
-        <v>1618473</v>
+        <v>38506</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>1694</v>
+        <v>67</v>
       </c>
       <c r="I23" s="7">
-        <v>1342908</v>
+        <v>35139</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3082</v>
+        <v>123</v>
       </c>
       <c r="N23" s="7">
-        <v>2961381</v>
+        <v>73646</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>267</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -5950,63 +6535,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>56</v>
+      </c>
+      <c r="D24" s="7">
+        <v>38506</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>67</v>
+      </c>
+      <c r="I24" s="7">
+        <v>35139</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>123</v>
+      </c>
+      <c r="N24" s="7">
+        <v>73646</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1388</v>
       </c>
-      <c r="D24" s="7">
-        <v>1618473</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D26" s="7">
+        <v>1754190</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>1694</v>
       </c>
-      <c r="I24" s="7">
-        <v>1342908</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I26" s="7">
+        <v>1235646</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>3082</v>
       </c>
-      <c r="N24" s="7">
-        <v>2961381</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="N26" s="7">
+        <v>2989837</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1388</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1754190</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1694</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1235646</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3082</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2989837</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
